--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/CG-Vak Software and Exports Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/CG-Vak Software and Exports Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Yearly Results of CG-Vak Software and Exports(in Rs. Cr.)</t>
   </si>
@@ -161,6 +161,81 @@
   </si>
   <si>
     <t>Mar '24</t>
+  </si>
+  <si>
+    <t>6.47</t>
+  </si>
+  <si>
+    <t>10.16</t>
+  </si>
+  <si>
+    <t>10.11</t>
+  </si>
+  <si>
+    <t>6.07</t>
+  </si>
+  <si>
+    <t>5.05</t>
+  </si>
+  <si>
+    <t>4.40</t>
+  </si>
+  <si>
+    <t>5.03</t>
+  </si>
+  <si>
+    <t>5.38</t>
+  </si>
+  <si>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>7.23</t>
+  </si>
+  <si>
+    <t>5.94</t>
+  </si>
+  <si>
+    <t>6.33</t>
+  </si>
+  <si>
+    <t>6.60</t>
+  </si>
+  <si>
+    <t>8.69</t>
+  </si>
+  <si>
+    <t>8.95</t>
+  </si>
+  <si>
+    <t>10.54</t>
+  </si>
+  <si>
+    <t>10.04</t>
+  </si>
+  <si>
+    <t>11.62</t>
+  </si>
+  <si>
+    <t>14.26</t>
+  </si>
+  <si>
+    <t>20.35</t>
+  </si>
+  <si>
+    <t>23.01</t>
+  </si>
+  <si>
+    <t>29.75</t>
+  </si>
+  <si>
+    <t>38.31</t>
+  </si>
+  <si>
+    <t>54.89</t>
+  </si>
+  <si>
+    <t>54.02</t>
   </si>
 </sst>
 </file>
@@ -602,14 +677,14 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
-        <v>6.47</v>
+      <c r="B2" t="s">
+        <v>49</v>
       </c>
       <c r="C2">
         <v>6.47</v>
       </c>
       <c r="D2">
-        <v>12.25823529411765</v>
+        <v>12.26</v>
       </c>
       <c r="E2">
         <v>0.31</v>
@@ -636,7 +711,7 @@
         <v>1.14</v>
       </c>
       <c r="M2">
-        <v>0.7490909090909091</v>
+        <v>0.75</v>
       </c>
       <c r="N2">
         <v>1.14</v>
@@ -654,36 +729,36 @@
         <v>10</v>
       </c>
       <c r="S2">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="T2">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="U2">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="V2">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="W2">
         <v>0.3</v>
       </c>
       <c r="X2">
-        <v>59.30066666666666</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3">
-        <v>10.16</v>
+      <c r="B3" t="s">
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>14.96208333333333</v>
+        <v>14.96</v>
       </c>
       <c r="D3">
-        <v>12.25823529411765</v>
+        <v>12.26</v>
       </c>
       <c r="E3">
         <v>0.42</v>
@@ -692,28 +767,28 @@
         <v>7.89</v>
       </c>
       <c r="G3">
-        <v>2.595</v>
+        <v>2.6</v>
       </c>
       <c r="H3">
         <v>0.09</v>
       </c>
       <c r="I3">
-        <v>2.953333333333333</v>
+        <v>2.95</v>
       </c>
       <c r="J3">
         <v>0.32</v>
       </c>
       <c r="K3">
-        <v>2.731666666666667</v>
+        <v>2.73</v>
       </c>
       <c r="L3">
-        <v>2.731666666666667</v>
+        <v>2.73</v>
       </c>
       <c r="M3">
         <v>0.05</v>
       </c>
       <c r="N3">
-        <v>2.046666666666667</v>
+        <v>2.05</v>
       </c>
       <c r="O3">
         <v>1.57</v>
@@ -725,19 +800,19 @@
         <v>2.43</v>
       </c>
       <c r="R3">
-        <v>7.142857142857143</v>
+        <v>7.14</v>
       </c>
       <c r="S3">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="T3">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="U3">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="V3">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="W3">
         <v>0.21</v>
@@ -750,14 +825,14 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4">
-        <v>10.11</v>
+      <c r="B4" t="s">
+        <v>51</v>
       </c>
       <c r="C4">
         <v>10.11</v>
       </c>
       <c r="D4">
-        <v>12.25823529411765</v>
+        <v>12.26</v>
       </c>
       <c r="E4">
         <v>0.52</v>
@@ -802,16 +877,16 @@
         <v>5</v>
       </c>
       <c r="S4">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="T4">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="U4">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="V4">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="W4">
         <v>0.21</v>
@@ -824,14 +899,14 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5">
-        <v>6.07</v>
+      <c r="B5" t="s">
+        <v>52</v>
       </c>
       <c r="C5">
         <v>6.07</v>
       </c>
       <c r="D5">
-        <v>12.25823529411765</v>
+        <v>12.26</v>
       </c>
       <c r="E5">
         <v>0.58</v>
@@ -873,19 +948,19 @@
         <v>3.53</v>
       </c>
       <c r="R5">
-        <v>7.142857142857143</v>
+        <v>7.14</v>
       </c>
       <c r="S5">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="T5">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="U5">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="V5">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="W5">
         <v>0.21</v>
@@ -898,14 +973,14 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6">
-        <v>5.05</v>
+      <c r="B6" t="s">
+        <v>53</v>
       </c>
       <c r="C6">
         <v>5.05</v>
       </c>
       <c r="D6">
-        <v>12.25823529411765</v>
+        <v>12.26</v>
       </c>
       <c r="E6">
         <v>0.75</v>
@@ -932,7 +1007,7 @@
         <v>0.03</v>
       </c>
       <c r="M6">
-        <v>0.7490909090909091</v>
+        <v>0.75</v>
       </c>
       <c r="N6">
         <v>0.03</v>
@@ -947,19 +1022,19 @@
         <v>3.53</v>
       </c>
       <c r="R6">
-        <v>7.142857142857143</v>
+        <v>7.14</v>
       </c>
       <c r="S6">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="T6">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="U6">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="V6">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="W6">
         <v>0.21</v>
@@ -972,14 +1047,14 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7">
-        <v>4.4</v>
+      <c r="B7" t="s">
+        <v>54</v>
       </c>
       <c r="C7">
         <v>4.4</v>
       </c>
       <c r="D7">
-        <v>12.25823529411765</v>
+        <v>12.26</v>
       </c>
       <c r="E7">
         <v>0.74</v>
@@ -1006,7 +1081,7 @@
         <v>0.04</v>
       </c>
       <c r="M7">
-        <v>0.7490909090909091</v>
+        <v>0.75</v>
       </c>
       <c r="N7">
         <v>0.04</v>
@@ -1021,19 +1096,19 @@
         <v>3.52</v>
       </c>
       <c r="R7">
-        <v>7.142857142857143</v>
+        <v>7.14</v>
       </c>
       <c r="S7">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="T7">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="U7">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="V7">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="W7">
         <v>0.34</v>
@@ -1046,14 +1121,14 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8">
-        <v>5.03</v>
+      <c r="B8" t="s">
+        <v>55</v>
       </c>
       <c r="C8">
         <v>5.03</v>
       </c>
       <c r="D8">
-        <v>12.25823529411765</v>
+        <v>12.26</v>
       </c>
       <c r="E8">
         <v>0.85</v>
@@ -1095,19 +1170,19 @@
         <v>3.52</v>
       </c>
       <c r="R8">
-        <v>7.142857142857143</v>
+        <v>7.14</v>
       </c>
       <c r="S8">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="T8">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="U8">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="V8">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="W8">
         <v>0.36</v>
@@ -1120,14 +1195,14 @@
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9">
-        <v>5.38</v>
+      <c r="B9" t="s">
+        <v>56</v>
       </c>
       <c r="C9">
         <v>5.38</v>
       </c>
       <c r="D9">
-        <v>12.25823529411765</v>
+        <v>12.26</v>
       </c>
       <c r="E9">
         <v>0.27</v>
@@ -1169,19 +1244,19 @@
         <v>3.55</v>
       </c>
       <c r="R9">
-        <v>7.142857142857143</v>
+        <v>7.14</v>
       </c>
       <c r="S9">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="T9">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="U9">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="V9">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="W9">
         <v>0.36</v>
@@ -1194,8 +1269,8 @@
       <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B10">
-        <v>6.05</v>
+      <c r="B10" t="s">
+        <v>57</v>
       </c>
       <c r="C10">
         <v>6.05</v>
@@ -1243,19 +1318,19 @@
         <v>3.01</v>
       </c>
       <c r="R10">
-        <v>7.142857142857143</v>
+        <v>7.14</v>
       </c>
       <c r="S10">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="T10">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="U10">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="V10">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="W10">
         <v>0.36</v>
@@ -1268,8 +1343,8 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11">
-        <v>7.23</v>
+      <c r="B11" t="s">
+        <v>58</v>
       </c>
       <c r="C11">
         <v>7.23</v>
@@ -1317,19 +1392,19 @@
         <v>3.2</v>
       </c>
       <c r="R11">
-        <v>7.142857142857143</v>
+        <v>7.14</v>
       </c>
       <c r="S11">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="T11">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="U11">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="V11">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="W11">
         <v>0.33</v>
@@ -1342,8 +1417,8 @@
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12">
-        <v>5.94</v>
+      <c r="B12" t="s">
+        <v>59</v>
       </c>
       <c r="C12">
         <v>5.94</v>
@@ -1391,19 +1466,19 @@
         <v>2.54</v>
       </c>
       <c r="R12">
-        <v>7.142857142857143</v>
+        <v>7.14</v>
       </c>
       <c r="S12">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="T12">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="U12">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="V12">
-        <v>6.686428571428571</v>
+        <v>6.69</v>
       </c>
       <c r="W12">
         <v>0.31</v>
@@ -1416,8 +1491,8 @@
       <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13">
-        <v>6.33</v>
+      <c r="B13" t="s">
+        <v>60</v>
       </c>
       <c r="C13">
         <v>6.33</v>
@@ -1465,7 +1540,7 @@
         <v>2.65</v>
       </c>
       <c r="R13">
-        <v>7.142857142857143</v>
+        <v>7.14</v>
       </c>
       <c r="S13">
         <v>0.22</v>
@@ -1490,8 +1565,8 @@
       <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14">
-        <v>6.6</v>
+      <c r="B14" t="s">
+        <v>61</v>
       </c>
       <c r="C14">
         <v>6.6</v>
@@ -1539,7 +1614,7 @@
         <v>1.42</v>
       </c>
       <c r="R14">
-        <v>7.142857142857143</v>
+        <v>7.14</v>
       </c>
       <c r="S14">
         <v>-2.44</v>
@@ -1564,8 +1639,8 @@
       <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B15">
-        <v>8.69</v>
+      <c r="B15" t="s">
+        <v>62</v>
       </c>
       <c r="C15">
         <v>8.69</v>
@@ -1638,8 +1713,8 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16">
-        <v>8.949999999999999</v>
+      <c r="B16" t="s">
+        <v>63</v>
       </c>
       <c r="C16">
         <v>8.949999999999999</v>
@@ -1712,8 +1787,8 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17">
-        <v>10.54</v>
+      <c r="B17" t="s">
+        <v>64</v>
       </c>
       <c r="C17">
         <v>10.54</v>
@@ -1786,8 +1861,8 @@
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18">
-        <v>10.04</v>
+      <c r="B18" t="s">
+        <v>65</v>
       </c>
       <c r="C18">
         <v>10.04</v>
@@ -1853,15 +1928,15 @@
         <v>0.3</v>
       </c>
       <c r="X18">
-        <v>59.30066666666666</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19">
-        <v>11.62</v>
+      <c r="B19" t="s">
+        <v>66</v>
       </c>
       <c r="C19">
         <v>11.62</v>
@@ -1927,15 +2002,15 @@
         <v>0.3</v>
       </c>
       <c r="X19">
-        <v>59.30066666666666</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20">
-        <v>14.26</v>
+      <c r="B20" t="s">
+        <v>67</v>
       </c>
       <c r="C20">
         <v>14.26</v>
@@ -1959,7 +2034,7 @@
         <v>1.56</v>
       </c>
       <c r="J20">
-        <v>0.2354166666666667</v>
+        <v>0.24</v>
       </c>
       <c r="K20">
         <v>1.56</v>
@@ -2001,15 +2076,15 @@
         <v>0.3</v>
       </c>
       <c r="X20">
-        <v>59.30066666666666</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21">
-        <v>20.35</v>
+      <c r="B21" t="s">
+        <v>68</v>
       </c>
       <c r="C21">
         <v>20.35</v>
@@ -2075,15 +2150,15 @@
         <v>0.3</v>
       </c>
       <c r="X21">
-        <v>59.30066666666666</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22">
-        <v>23.01</v>
+      <c r="B22" t="s">
+        <v>69</v>
       </c>
       <c r="C22">
         <v>23.01</v>
@@ -2149,15 +2224,15 @@
         <v>0.3</v>
       </c>
       <c r="X22">
-        <v>59.30066666666666</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B23">
-        <v>29.75</v>
+      <c r="B23" t="s">
+        <v>70</v>
       </c>
       <c r="C23">
         <v>29.75</v>
@@ -2223,15 +2298,15 @@
         <v>0.3</v>
       </c>
       <c r="X23">
-        <v>59.30066666666666</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="B24">
-        <v>38.31</v>
+      <c r="B24" t="s">
+        <v>71</v>
       </c>
       <c r="C24">
         <v>38.31</v>
@@ -2297,15 +2372,15 @@
         <v>0.3</v>
       </c>
       <c r="X24">
-        <v>59.30066666666666</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
         <v>47</v>
       </c>
-      <c r="B25">
-        <v>54.89</v>
+      <c r="B25" t="s">
+        <v>72</v>
       </c>
       <c r="C25">
         <v>54.89</v>
@@ -2371,15 +2446,15 @@
         <v>0.3</v>
       </c>
       <c r="X25">
-        <v>59.30066666666666</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="B26">
-        <v>54.02</v>
+      <c r="B26" t="s">
+        <v>73</v>
       </c>
       <c r="C26">
         <v>54.02</v>
@@ -2445,7 +2520,7 @@
         <v>0.3</v>
       </c>
       <c r="X26">
-        <v>59.30066666666666</v>
+        <v>59.3</v>
       </c>
     </row>
   </sheetData>
